--- a/库表模板.xlsx
+++ b/库表模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56FC1BA-64C9-420A-B7E9-185C0DDDB5F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,48 +46,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小数位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,11 +620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,10 +654,10 @@
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -667,19 +668,19 @@
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -688,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -706,10 +707,10 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -906,7 +907,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/库表模板.xlsx
+++ b/库表模板.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56FC1BA-64C9-420A-B7E9-185C0DDDB5F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA7B59-AEE4-490F-8032-F83A3F96D37E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>主键</t>
   </si>
@@ -77,11 +79,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>user1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>user2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,7 +664,7 @@
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -707,7 +717,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>7</v>
@@ -914,4 +924,598 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42661001-48EC-48E8-9E8C-3532018F670D}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{086D4D16-4F2D-4D38-B01E-EFC6E0D8DD6B}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F217BB-1B2D-44E4-AF4E-D640CE1228AF}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{202131A1-08F0-49F3-B13C-53DA945AE9CF}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>